--- a/www/IndicatorsPerCountry/Uganda_GDPperCapita_TerritorialRef_1962_2012_CCode_800.xlsx
+++ b/www/IndicatorsPerCountry/Uganda_GDPperCapita_TerritorialRef_1962_2012_CCode_800.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Uganda_GDPperCapita_TerritorialRef_1962_2012_CCode_800.xlsx
+++ b/www/IndicatorsPerCountry/Uganda_GDPperCapita_TerritorialRef_1962_2012_CCode_800.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>694</t>
-  </si>
-  <si>
-    <t>751</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>584.678066151</t>
-  </si>
-  <si>
-    <t>575.03389306</t>
-  </si>
-  <si>
-    <t>570.704400626</t>
-  </si>
-  <si>
-    <t>595.291509273</t>
-  </si>
-  <si>
-    <t>610.783013761</t>
-  </si>
-  <si>
-    <t>660.719543783</t>
-  </si>
-  <si>
-    <t>700.972016733</t>
-  </si>
-  <si>
-    <t>717.458125243</t>
-  </si>
-  <si>
-    <t>722.284214358</t>
-  </si>
-  <si>
-    <t>755.539045464</t>
-  </si>
-  <si>
-    <t>771.397791721</t>
-  </si>
-  <si>
-    <t>800.223239801</t>
-  </si>
-  <si>
-    <t>834.098919602</t>
-  </si>
-  <si>
-    <t>860.970032685</t>
-  </si>
-  <si>
-    <t>887.637979299</t>
-  </si>
-  <si>
-    <t>933.063346139</t>
-  </si>
-  <si>
-    <t>988.996604008</t>
-  </si>
-  <si>
-    <t>1040.12068666</t>
-  </si>
-  <si>
-    <t>1086.71004203</t>
-  </si>
-  <si>
-    <t>1127.33386926</t>
-  </si>
-  <si>
-    <t>1158.37913778</t>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>915.4053283443</t>
+  </si>
+  <si>
+    <t>934.826261105848</t>
+  </si>
+  <si>
+    <t>959.18814301581</t>
+  </si>
+  <si>
+    <t>994.533391761838</t>
+  </si>
+  <si>
+    <t>1054.71392960536</t>
+  </si>
+  <si>
+    <t>1091.52752640033</t>
+  </si>
+  <si>
+    <t>1107.50094097432</t>
+  </si>
+  <si>
+    <t>1137.63815124113</t>
+  </si>
+  <si>
+    <t>1185.43126903932</t>
+  </si>
+  <si>
+    <t>1191.95387984613</t>
+  </si>
+  <si>
+    <t>1255.88443421343</t>
+  </si>
+  <si>
+    <t>1301.05882786418</t>
+  </si>
+  <si>
+    <t>1335.03049678079</t>
+  </si>
+  <si>
+    <t>1364.68519311037</t>
+  </si>
+  <si>
+    <t>1451.09732627394</t>
+  </si>
+  <si>
+    <t>1501.38549955738</t>
+  </si>
+  <si>
+    <t>1569.82984070588</t>
+  </si>
+  <si>
+    <t>1679.39947788346</t>
+  </si>
+  <si>
+    <t>1757.38624301723</t>
+  </si>
+  <si>
+    <t>1831.29070046743</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1877</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1980</t>
   </si>
   <si>
     <t>Description</t>
@@ -1354,6 +1372,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1369,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
